--- a/experiments/2022_scientific_reports/results/statistics/stats_cortisol_interaction.xlsx
+++ b/experiments/2022_scientific_reports/results/statistics/stats_cortisol_interaction.xlsx
@@ -682,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>0.9165206551551819</v>
+        <v>0.916520893573761</v>
       </c>
       <c r="D3">
-        <v>0.258390486240387</v>
+        <v>0.2583920061588287</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -697,10 +697,10 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>0.9031654596328735</v>
+        <v>0.9031656980514526</v>
       </c>
       <c r="D4">
-        <v>0.1477978527545929</v>
+        <v>0.1477988213300705</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -714,10 +714,10 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.9336909651756287</v>
+        <v>0.9336912035942078</v>
       </c>
       <c r="D5">
-        <v>0.4208804368972778</v>
+        <v>0.4208829700946808</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -729,10 +729,10 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.8798271417617798</v>
+        <v>0.8798273205757141</v>
       </c>
       <c r="D6">
-        <v>0.07092691957950592</v>
+        <v>0.07092723250389099</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -746,10 +746,10 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>0.8522208333015442</v>
+        <v>0.8522209525108337</v>
       </c>
       <c r="D7">
-        <v>0.03910982608795166</v>
+        <v>0.039109967648983</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -761,10 +761,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>0.8928344249725342</v>
+        <v>0.8928342461585999</v>
       </c>
       <c r="D8">
-        <v>0.1066560819745064</v>
+        <v>0.1066554039716721</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -778,10 +778,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>0.7771830558776855</v>
+        <v>0.7771828174591064</v>
       </c>
       <c r="D9">
-        <v>0.005215512122958899</v>
+        <v>0.005215483251959085</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -793,10 +793,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>0.8851015567779541</v>
+        <v>0.8851017355918884</v>
       </c>
       <c r="D10">
-        <v>0.08363973349332809</v>
+        <v>0.08364022523164749</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -825,10 +825,10 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>0.8487560749053955</v>
+        <v>0.8487558960914612</v>
       </c>
       <c r="D12">
-        <v>0.02746589481830597</v>
+        <v>0.02746575139462948</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0.7636914253234863</v>
       </c>
       <c r="D13">
-        <v>0.003728127805516124</v>
+        <v>0.0037281250115484</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-0.893271968744196</v>
+        <v>-0.8932719687441959</v>
       </c>
       <c r="I5">
         <v>24</v>
@@ -1750,7 +1750,7 @@
         <v>50</v>
       </c>
       <c r="K15">
-        <v>0.01623285484972597</v>
+        <v>0.01623285484972599</v>
       </c>
       <c r="L15" t="s">
         <v>63</v>
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.4261778213859899</v>
+        <v>0.42617782138599</v>
       </c>
       <c r="I19">
         <v>22.97926956498537</v>
@@ -1914,7 +1914,7 @@
         <v>50</v>
       </c>
       <c r="K19">
-        <v>0.6739438915983601</v>
+        <v>0.67394389159836</v>
       </c>
       <c r="L19" t="s">
         <v>67</v>
@@ -2119,7 +2119,7 @@
         <v>50</v>
       </c>
       <c r="K24">
-        <v>0.3017924346003892</v>
+        <v>0.301792434600389</v>
       </c>
       <c r="L24" t="s">
         <v>72</v>

--- a/experiments/2022_scientific_reports/results/statistics/stats_cortisol_interaction.xlsx
+++ b/experiments/2022_scientific_reports/results/statistics/stats_cortisol_interaction.xlsx
@@ -11,7 +11,7 @@
     <sheet name="normality" sheetId="2" r:id="rId2"/>
     <sheet name="equal_var" sheetId="3" r:id="rId3"/>
     <sheet name="mixed_anova" sheetId="4" r:id="rId4"/>
-    <sheet name="pairwise_ttests" sheetId="5" r:id="rId5"/>
+    <sheet name="pairwise_tests" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -239,7 +239,7 @@
     <t>0.553</t>
   </si>
   <si>
-    <t>Pairwise t-Tests</t>
+    <t>Pairwise Tests</t>
   </si>
 </sst>
 </file>
